--- a/biology/Médecine/Sélénoprotéine_P/Sélénoprotéine_P.xlsx
+++ b/biology/Médecine/Sélénoprotéine_P/Sélénoprotéine_P.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>S%C3%A9l%C3%A9noprot%C3%A9ine_P</t>
+          <t>Sélénoprotéine_P</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La sélénoprotéine P est une sélénoprotéine ayant un rôle de transport du sélénium ainsi qu'une activité antioxydante. Son gène est le SEPP1 situé sur le Chromosome 5 humain.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>S%C3%A9l%C3%A9noprot%C3%A9ine_P</t>
+          <t>Sélénoprotéine_P</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Structure</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son extrémité C-terminal comprend plusieurs sélénocystéine[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son extrémité C-terminal comprend plusieurs sélénocystéine.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>S%C3%A9l%C3%A9noprot%C3%A9ine_P</t>
+          <t>Sélénoprotéine_P</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,11 +556,13 @@
           <t>Rôles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle permet le transport et la délivrance du sélénium dans les différents tissus[6].
-Son extrémité N-terminal a des propriétés d'oxydase[7], agissant sur la réponse inflammatoire du stress oxydatif[8].
-Elle intervient dans la stabilisation du génome et la régulation des cellules souches[9].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle permet le transport et la délivrance du sélénium dans les différents tissus.
+Son extrémité N-terminal a des propriétés d'oxydase, agissant sur la réponse inflammatoire du stress oxydatif.
+Elle intervient dans la stabilisation du génome et la régulation des cellules souches.
 </t>
         </is>
       </c>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>S%C3%A9l%C3%A9noprot%C3%A9ine_P</t>
+          <t>Sélénoprotéine_P</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,10 +591,12 @@
           <t>En médecine</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Certains variants du gène semblent corrélés avec un risque augmenté de survenue d'un cancer colorectal[10] ou de la prostate[11].
-Le taux sanguin de cette protéine est abaissé en cas de maladie de Crohn[12].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Certains variants du gène semblent corrélés avec un risque augmenté de survenue d'un cancer colorectal ou de la prostate.
+Le taux sanguin de cette protéine est abaissé en cas de maladie de Crohn.
 </t>
         </is>
       </c>
